--- a/webrouting/src/main/resources/static/documents/Locations - SAMPLE.xlsx
+++ b/webrouting/src/main/resources/static/documents/Locations - SAMPLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPSC 488 Software Engineering\excel samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakot\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB2E931-D747-42DF-A080-F17D332613C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297E4343-95F0-46CA-A129-0A590D3E2821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1425" windowWidth="29040" windowHeight="15720" xr2:uid="{6F7B2A25-9F4D-490E-B70D-6C9AB6577A80}"/>
+    <workbookView xWindow="5445" yWindow="3855" windowWidth="27045" windowHeight="15195" xr2:uid="{6F7B2A25-9F4D-490E-B70D-6C9AB6577A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -56,12 +56,6 @@
     <t>Zip Code</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
     <t>Location Type</t>
   </si>
   <si>
@@ -74,12 +68,6 @@
     <t>unit 7</t>
   </si>
   <si>
-    <t>Slippery Rock</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
     <t>Office</t>
   </si>
   <si>
@@ -95,18 +83,12 @@
     <t>67 Lancaster Road</t>
   </si>
   <si>
-    <t>Zelienople</t>
-  </si>
-  <si>
     <t>RJ Logistics</t>
   </si>
   <si>
     <t>5510 Export Blvd</t>
   </si>
   <si>
-    <t>Savannah</t>
-  </si>
-  <si>
     <t>GA</t>
   </si>
   <si>
@@ -116,21 +98,12 @@
     <t>1101 Parkway View Drive</t>
   </si>
   <si>
-    <t xml:space="preserve">Pittsburgh </t>
-  </si>
-  <si>
     <t>Flex</t>
   </si>
   <si>
     <t>3650 Connecticut Ave</t>
   </si>
   <si>
-    <t>Youngstown</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
     <t>McGann</t>
   </si>
   <si>
@@ -143,18 +116,12 @@
     <t>300 Alton Hill Drive</t>
   </si>
   <si>
-    <t>Eighty Four</t>
-  </si>
-  <si>
     <t>Moes</t>
   </si>
   <si>
     <t>106 Bungle Road</t>
   </si>
   <si>
-    <t>Alliance</t>
-  </si>
-  <si>
     <t>Garage</t>
   </si>
   <si>
@@ -177,6 +144,63 @@
   </si>
   <si>
     <t>Apt 6</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Honolulu</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Industrial</t>
   </si>
 </sst>
 </file>
@@ -609,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259BE04-5091-4E19-B4FA-87351044F1D2}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,18 +647,16 @@
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,266 +678,206 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2">
+        <v>89101</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2">
-        <v>16057</v>
-      </c>
-      <c r="G2" s="2">
-        <v>41.064</v>
-      </c>
-      <c r="H2" s="2">
-        <v>80.015640000000005</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2">
+        <v>96801</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2">
-        <v>16057</v>
-      </c>
-      <c r="G3" s="2">
-        <v>41.588999999999999</v>
-      </c>
-      <c r="H3" s="2">
-        <v>80.159199999999998</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="F4" s="2">
+        <v>30301</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2">
+        <v>97201</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2">
-        <v>16063</v>
-      </c>
-      <c r="G4" s="2">
-        <v>40.794499999999999</v>
-      </c>
-      <c r="H4" s="2">
-        <v>80.136700000000005</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2">
-        <v>31408</v>
-      </c>
-      <c r="G5" s="2">
-        <v>32.090800000000002</v>
-      </c>
-      <c r="H5" s="2">
-        <v>81.091200000000001</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2">
+        <v>37201</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2">
+        <v>33101</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2">
+        <v>98101</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2">
+        <v>80201</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2">
-        <v>15205</v>
-      </c>
-      <c r="G6" s="2">
-        <v>40.445700000000002</v>
-      </c>
-      <c r="H6" s="2">
-        <v>80.130899999999997</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2">
-        <v>44515</v>
-      </c>
-      <c r="G7" s="2">
-        <v>41.099800000000002</v>
-      </c>
-      <c r="H7" s="2">
-        <v>80.648499999999999</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2">
-        <v>15226</v>
-      </c>
-      <c r="G8" s="2">
-        <v>40.559399999999997</v>
-      </c>
-      <c r="H8" s="2">
-        <v>80.102099999999993</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2">
-        <v>15330</v>
-      </c>
-      <c r="G9" s="2">
-        <v>40.185600000000001</v>
-      </c>
-      <c r="H9" s="2">
-        <v>80.132999999999996</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2">
-        <v>44601</v>
-      </c>
-      <c r="G10" s="2">
-        <v>40.915300000000002</v>
-      </c>
-      <c r="H10" s="2">
-        <v>81.105900000000005</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>41</v>
+        <v>79901</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/webrouting/src/main/resources/static/documents/Locations - SAMPLE.xlsx
+++ b/webrouting/src/main/resources/static/documents/Locations - SAMPLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakot\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297E4343-95F0-46CA-A129-0A590D3E2821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E6D9D7-B34C-45D8-BE57-5A1BE7235ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="3855" windowWidth="27045" windowHeight="15195" xr2:uid="{6F7B2A25-9F4D-490E-B70D-6C9AB6577A80}"/>
+    <workbookView xWindow="8580" yWindow="1620" windowWidth="27045" windowHeight="15195" xr2:uid="{6F7B2A25-9F4D-490E-B70D-6C9AB6577A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,12 +185,6 @@
     <t>Atlanta</t>
   </si>
   <si>
-    <t>Honolulu</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
     <t>Las Vegas</t>
   </si>
   <si>
@@ -201,6 +195,12 @@
   </si>
   <si>
     <t>Industrial</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>CA</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,10 +690,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2">
         <v>89101</v>
@@ -711,13 +711,13 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2">
-        <v>96801</v>
+        <v>90001</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>28</v>
@@ -743,7 +743,7 @@
         <v>30301</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>37201</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -877,7 +877,7 @@
         <v>79901</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/webrouting/src/main/resources/static/documents/Locations - SAMPLE.xlsx
+++ b/webrouting/src/main/resources/static/documents/Locations - SAMPLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakot\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E6D9D7-B34C-45D8-BE57-5A1BE7235ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9125F278-E774-43D0-B9A1-6611F23EB3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="1620" windowWidth="27045" windowHeight="15195" xr2:uid="{6F7B2A25-9F4D-490E-B70D-6C9AB6577A80}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="27045" windowHeight="15195" xr2:uid="{6F7B2A25-9F4D-490E-B70D-6C9AB6577A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Location Type</t>
   </si>
   <si>
-    <t>Dakota</t>
-  </si>
-  <si>
     <t>5 Wallaby Street</t>
   </si>
   <si>
@@ -71,54 +68,30 @@
     <t>Office</t>
   </si>
   <si>
-    <t>Gregs</t>
-  </si>
-  <si>
     <t>34 Main Street</t>
   </si>
   <si>
-    <t>Dunkins</t>
-  </si>
-  <si>
     <t>67 Lancaster Road</t>
   </si>
   <si>
-    <t>RJ Logistics</t>
-  </si>
-  <si>
     <t>5510 Export Blvd</t>
   </si>
   <si>
     <t>GA</t>
   </si>
   <si>
-    <t>Tess</t>
-  </si>
-  <si>
     <t>1101 Parkway View Drive</t>
   </si>
   <si>
-    <t>Flex</t>
-  </si>
-  <si>
     <t>3650 Connecticut Ave</t>
   </si>
   <si>
-    <t>McGann</t>
-  </si>
-  <si>
     <t>700 Hargrove Street</t>
   </si>
   <si>
-    <t>Earls</t>
-  </si>
-  <si>
     <t>300 Alton Hill Drive</t>
   </si>
   <si>
-    <t>Moes</t>
-  </si>
-  <si>
     <t>106 Bungle Road</t>
   </si>
   <si>
@@ -201,6 +174,33 @@
   </si>
   <si>
     <t>CA</t>
+  </si>
+  <si>
+    <t>Bellagio Hotel</t>
+  </si>
+  <si>
+    <t>The Getty</t>
+  </si>
+  <si>
+    <t>Flatiron</t>
+  </si>
+  <si>
+    <t>KOIN Center</t>
+  </si>
+  <si>
+    <t>The Parthenon</t>
+  </si>
+  <si>
+    <t>Olympia Theater</t>
+  </si>
+  <si>
+    <t>Space Needle</t>
+  </si>
+  <si>
+    <t>Coors Field</t>
+  </si>
+  <si>
+    <t>Anson Mills</t>
   </si>
 </sst>
 </file>
@@ -636,12 +636,12 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -681,203 +681,203 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2">
         <v>89101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2">
         <v>90001</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="2">
         <v>30301</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2">
         <v>97201</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2">
         <v>37201</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2">
         <v>33101</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F8" s="2">
         <v>98101</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
         <v>80201</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2">
         <v>79901</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
